--- a/database/industries/darou/defara/eps.xlsx
+++ b/database/industries/darou/defara/eps.xlsx
@@ -533,7 +533,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>-1727</v>
+        <v>1727</v>
       </c>
       <c r="D6">
         <v>0</v>
